--- a/1_experiment_design/20201102_exp9_atpassaycalibration_2/20201102_exp9_atpassaycalibration.xlsx
+++ b/1_experiment_design/20201102_exp9_atpassaycalibration_2/20201102_exp9_atpassaycalibration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitaroychoudhury/Documents/MURRAY/ug_murray/experiments/20201102_exp10_atpassaycalibration_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ankitaroychoudhury/Documents/MURRAY/ug_murray/1_experiment_design/20201102_exp9_atpassaycalibration_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5950BD2-A105-AD42-9D96-E1B58176CEF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51B48BF-469A-BC40-AFD5-4411515CBB3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="109">
   <si>
     <t>Notes</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>the one before A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1385,8 +1388,8 @@
   </sheetPr>
   <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1747,6 +1750,10 @@
       <c r="I12" t="s">
         <v>47</v>
       </c>
+      <c r="L12">
+        <f>325/2</f>
+        <v>162.5</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
@@ -1782,6 +1789,9 @@
       <c r="H14" s="15" t="s">
         <v>27</v>
       </c>
+      <c r="O14" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
